--- a/Pandas/sales_data.xlsx
+++ b/Pandas/sales_data.xlsx
@@ -465,14 +465,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>191.69</v>
+        <v>147.16</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>137.98</v>
+        <v>103.09</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>185.51</v>
+        <v>164.48</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.62</v>
+        <v>103.48</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -529,14 +529,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.89</v>
+        <v>162.92</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>171.11</v>
+        <v>182.2</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>109.65</v>
+        <v>51.75</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74.8</v>
+        <v>124.72</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -593,14 +593,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>189.13</v>
+        <v>61.07</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -609,14 +609,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>102.16</v>
+        <v>168.04</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -625,14 +625,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>162.62</v>
+        <v>59.61</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>158.9</v>
+        <v>103.3</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -657,14 +657,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>182.5</v>
+        <v>191.28</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>143.55</v>
+        <v>106.97</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -689,14 +689,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>162.64</v>
+        <v>164.44</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -705,14 +705,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>102.33</v>
+        <v>165.74</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -721,14 +721,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90.48999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>184.38</v>
+        <v>165.91</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -753,14 +753,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114.21</v>
+        <v>72.94</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -769,14 +769,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>194.73</v>
+        <v>136.8</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -785,14 +785,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>149.52</v>
+        <v>51.35</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -801,14 +801,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>143.25</v>
+        <v>156.36</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>67.20999999999999</v>
+        <v>120.6</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -833,14 +833,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>192.42</v>
+        <v>164.69</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -849,14 +849,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>117.49</v>
+        <v>120.11</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -865,14 +865,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>136.76</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>111.22</v>
+        <v>174.75</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>85.55</v>
+        <v>132.7</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -913,14 +913,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>185.51</v>
+        <v>60.51</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -929,14 +929,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>136.05</v>
+        <v>120.87</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -945,14 +945,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>50.43</v>
+        <v>161.41</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -961,14 +961,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>142.57</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -977,14 +977,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>99</v>
+        <v>119.65</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -993,14 +993,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>129.06</v>
+        <v>84.55</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1009,14 +1009,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>182.89</v>
+        <v>126.24</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>103.59</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>186.28</v>
+        <v>57.4</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>143.5</v>
+        <v>127.83</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1073,14 +1073,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>52.37</v>
+        <v>75.84</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1089,14 +1089,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>189.42</v>
+        <v>109.45</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1105,14 +1105,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>153.63</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>199.6</v>
+        <v>126.47</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>75.84999999999999</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>70.56999999999999</v>
+        <v>93.31</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1169,14 +1169,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>189.89</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -1185,14 +1185,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>154.52</v>
+        <v>195.15</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1201,11 +1201,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>59.9</v>
+        <v>91.75</v>
       </c>
       <c r="D48" t="n">
         <v>13</v>
@@ -1217,14 +1217,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>163.32</v>
+        <v>85.04000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>163.08</v>
+        <v>63.73</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1249,14 +1249,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>188.45</v>
+        <v>135.51</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>156.73</v>
+        <v>112.69</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1281,14 +1281,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>68.64</v>
+        <v>105.18</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>52.98</v>
+        <v>171.95</v>
       </c>
       <c r="D54" t="n">
         <v>8</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>53.93</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>54.25</v>
+        <v>157.61</v>
       </c>
       <c r="D56" t="n">
         <v>14</v>
@@ -1345,14 +1345,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>86.93000000000001</v>
+        <v>141.94</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>179</v>
+        <v>114.04</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1377,14 +1377,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>130.82</v>
+        <v>162.78</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>132.92</v>
+        <v>114.17</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>176.3</v>
+        <v>114.26</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1425,14 +1425,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>68.63</v>
+        <v>104.29</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1441,14 +1441,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>91.88</v>
+        <v>73</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1457,14 +1457,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>137.86</v>
+        <v>190.58</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1473,14 +1473,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>195.44</v>
+        <v>187.46</v>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>134.15</v>
+        <v>167.29</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1505,14 +1505,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>52.8</v>
+        <v>142.45</v>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1521,14 +1521,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>170.09</v>
+        <v>55.4</v>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>84.95</v>
+        <v>148.15</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -1553,14 +1553,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>171.07</v>
+        <v>69.47</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -1569,14 +1569,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>108.18</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1585,14 +1585,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>179.53</v>
+        <v>104.12</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>162.07</v>
+        <v>91.2</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1617,14 +1617,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>133.44</v>
+        <v>61.1</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>70.47</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -1649,14 +1649,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>58.99</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>68.2</v>
+        <v>190.81</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -1681,14 +1681,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>56.68</v>
+        <v>105.67</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1697,14 +1697,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>66.12</v>
+        <v>57.5</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>83.86</v>
+        <v>161.14</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1729,14 +1729,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>156.95</v>
+        <v>94.8</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -1745,14 +1745,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>133.96</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>51.88</v>
+        <v>197.26</v>
       </c>
       <c r="D83" t="n">
         <v>7</v>
@@ -1777,14 +1777,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>60.8</v>
+        <v>183.95</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>195.09</v>
+        <v>163.9</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>135.22</v>
+        <v>147.67</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1825,14 +1825,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>80.48999999999999</v>
+        <v>55.95</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -1841,14 +1841,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>87.84999999999999</v>
+        <v>172.08</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -1857,14 +1857,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>161.57</v>
+        <v>164.39</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1873,14 +1873,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Microphone</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>79.31</v>
+        <v>118.29</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>137.2</v>
+        <v>129.77</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -1905,14 +1905,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>195.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1921,14 +1921,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>177.02</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -1937,14 +1937,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>85.98</v>
+        <v>126.32</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>124.07</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -1969,14 +1969,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>142.99</v>
+        <v>187.47</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>174.35</v>
+        <v>119.32</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>73.52</v>
+        <v>69.84</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2017,14 +2017,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Camera</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>52.79</v>
+        <v>164.64</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Keyboard</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>60.5</v>
+        <v>81.91</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2049,14 +2049,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Camera</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>122.95</v>
+        <v>61.14</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
